--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -82,28 +82,6 @@
   </si>
   <si>
     <t>Call setVectorCallback with function callback</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0876
-};
-validate4
-{
-validate_Screenshot=VT200-0876
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0876.png
-};</t>
   </si>
   <si>
     <t>validate1
@@ -154,7 +132,7 @@
     <t>Call show and scroll the page on screen</t>
   </si>
   <si>
-    <t>validate1
+    <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
 };
@@ -164,16 +142,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0878
+validate_Text_Exists=VT200-0885
 };
 validate4
 {
-validate_Screenshot=VT200-0878
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0878.png
-};</t>
+validate_Screenshot=VT200-0885
+};
+</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -186,78 +161,13 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0885
+validate_Text_Exists=VT200-0886
 };
 validate4
 {
-validate_Screenshot=VT200-0885
+validate_Screenshot=VT200-0886
 };
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0886
-};
-validate4
-{
-validate_Screenshot=VT200-0886
-};
-</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0887
-};
-validate4
-{
-validate_Screenshot=VT200-0887-01
-validate_Screenshot=VT200-0887-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0887.png
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0879
-};
-validate4
-{
-validate_Screenshot=VT200-0879-01
-validate_Screenshot=VT200-0879-02
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0879.png
-};</t>
   </si>
   <si>
     <t>Call takeFullScreen and rotate the device  landscape to portrait</t>
@@ -593,50 +503,6 @@
 };
 validate3
 {
-validate_Text_Exists=VT200-0882
-};
-validate4
-{
-validate_Screenshot=VT200-0882
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0882.jpg
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0880
-};
-validate4
-{
-validate_Screenshot=VT200-0880
-validate_Result=Status:
-validate_Result=ok
-validate_Result=ImageUri:
-validate_Result=file:///data/data/com.rhomobile.compliancetest_js/rhodata/db/db-files/VT200-0880.jpg
-};</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Signature JS Test
-};
-validate3
-{
 validate_Text_Exists=VT200-0883
 };
 validate4
@@ -714,22 +580,6 @@
 {
 validate_Result=cancel
 };</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0888_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-press_Key(Home);
-validate4;
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-wait(2);
-validate5;</t>
   </si>
   <si>
     <t>wait(3);
@@ -785,6 +635,163 @@
 };</t>
   </si>
   <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+SetStartPage(http://127.0.0.1:8082/app/);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0876
+};
+validate4
+{
+validate_Screenshot=VT200-0876
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0876.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0878
+};
+validate4
+{
+validate_Screenshot=VT200-0878
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0878.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0879
+};
+validate4
+{
+validate_Screenshot=VT200-0879-01
+validate_Screenshot=VT200-0879-02
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0879.png
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0880
+};
+validate4
+{
+validate_Screenshot=VT200-0880
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0880.jpg
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0882
+};
+validate4
+{
+validate_Screenshot=VT200-0882
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0882.jpg
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Signature JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0887
+};
+validate4
+{
+validate_Screenshot=VT200-0887-01
+validate_Screenshot=VT200-0887-02
+validate_Result=Status:
+validate_Result=ok
+validate_Result=ImageUri:
+validate_Result=file:///data/data/com.symbol.enterprisebrowser/rhodata/db/db-files/VT200-0887.png
+};</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0888_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+press_Key(Home);
+validate4;
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+wait(2);
+validate5;</t>
+  </si>
+  <si>
     <t>wait(3);
 validate1;
 link_Click(signature_test_link);
@@ -796,29 +803,15 @@
 TakeScreenshot(VT200-0890-01);
 press_Key(Home);
 validate4;
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 TakeScreenshot(VT200-0890-02);
 validate5;</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1404,20 +1397,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="44.5703125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="6.02265625" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" thickBot="1">
@@ -1467,21 +1460,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="237" thickBot="1">
@@ -1502,15 +1493,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="214.5" thickBot="1">
@@ -1531,15 +1520,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="237" thickBot="1">
@@ -1560,15 +1547,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="248.25" thickBot="1">
@@ -1583,21 +1568,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="J6" s="15"/>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="237" thickBot="1">
@@ -1618,15 +1601,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="J7" s="14"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="225.75" thickBot="1">
@@ -1647,15 +1628,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="J8" s="14"/>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="237" thickBot="1">
@@ -1676,15 +1655,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="J9" s="14"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" ht="225.75" thickBot="1">
@@ -1705,15 +1682,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="J10" s="14"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="192" thickBot="1">
@@ -1734,15 +1709,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="192" thickBot="1">
@@ -1757,21 +1730,18 @@
         <v>10</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="24">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I12" s="21"/>
-      <c r="J12" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="13" spans="1:11" ht="192" thickBot="1">
       <c r="A13" s="26">
@@ -1785,21 +1755,18 @@
         <v>10</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="24">
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="248.25" thickBot="1">
       <c r="A14" s="26">
@@ -1813,21 +1780,19 @@
         <v>10</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I14" s="21"/>
-      <c r="J14" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="225.75" thickBot="1">
       <c r="A15" s="26">
@@ -1841,21 +1806,19 @@
         <v>10</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="24">
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I15" s="21"/>
-      <c r="J15" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="192" thickBot="1">
       <c r="A16" s="26">
@@ -1869,21 +1832,18 @@
         <v>10</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="24">
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="17" spans="1:9" ht="237" thickBot="1">
       <c r="A17" s="26">
@@ -1897,21 +1857,18 @@
         <v>10</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="24">
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I17" s="21"/>
-      <c r="J17" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="18" spans="1:9" ht="192" thickBot="1">
       <c r="A18" s="26">
@@ -1925,21 +1882,18 @@
         <v>10</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="24">
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I18" s="21"/>
-      <c r="J18" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="19" spans="1:9" ht="180.75" thickBot="1">
       <c r="A19" s="26">
@@ -1953,21 +1907,18 @@
         <v>10</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="24">
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I19" s="21"/>
-      <c r="J19" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="203.25" thickBot="1">
       <c r="A20" s="26">
@@ -1981,19 +1932,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F20" s="24">
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2012,9 +1960,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
@@ -638,10 +638,6 @@
     <t>Change Start page</t>
   </si>
   <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -806,6 +802,18 @@
 launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
 TakeScreenshot(VT200-0890-02);
 validate5;</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1397,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1446,7 +1454,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="39" thickBot="1">
+    <row r="2" spans="1:11" ht="281.25" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="27" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2" t="s">
@@ -1496,7 +1504,7 @@
         <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1550,7 +1558,7 @@
         <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1577,7 +1585,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -1604,7 +1612,7 @@
         <v>39</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1658,7 +1666,7 @@
         <v>47</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
@@ -1789,7 +1797,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
@@ -1812,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>55</v>
@@ -1863,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>54</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
@@ -807,11 +807,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -1406,7 +1402,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1454,7 +1450,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="281.25" thickBot="1">
+    <row r="2" spans="1:11" ht="217.5" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Signature_JS.xlsx
@@ -234,151 +234,6 @@
 validate1;
 link_Click(signature_test_link);
 validate2;
-SelectTestToRun(VT200_0876_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0876);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0877_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-TakeNativeScreenshot(VT200-0877);
-ClickNativeIcon(signature_cancel_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0880_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0880);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0881_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0881-01);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-TakeNativeScreenshot(VT200-0881-02);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0885_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0885);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0886_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0886);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0887_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-SwitchApp(NATIVE_APP);
-DrawSignature(signature_view_xpath);
-TakeNativeScreenshot(VT200-0887-01);
-ClickNativeIcon(signature_clear_xpath);
-wait(2);
-TakeNativeScreenshot(VT200-0887-02);
-ClickNativeIcon(signature_ok_xpath);
-wait(2);
-SwitchApp(WEBVIEW);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0893_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-Rotate_Screen(landscape);
-wait(2);
-TakeNativeScreenshot(VT200-0893-01);
-wait(2);
-Rotate_Screen(potrait);
-wait(2);
-TakeNativeScreenshot(VT200-0893-02);
-wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
 SelectTestToRun(VT200_0878_string);
 ClickRunTest(runtest_top_xpath);
 validate3;
@@ -439,22 +294,6 @@
 wait(4);
 TakeScreenshot(VT200-0879-02);
 wait(2);
-validate4;</t>
-  </si>
-  <si>
-    <t>wait(3);
-validate1;
-link_Click(signature_test_link);
-validate2;
-SelectTestToRun(VT200_0889_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-TakeNativeScreenshot(VT200-0889-01);
-Lock_UnlockScreen(lock);
-Lock_UnlockScreen(unlock);
-wait(2);
-TakeNativeScreenshot(VT200-0889-02);
 validate4;</t>
   </si>
   <si>
@@ -810,6 +649,167 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0876_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0876);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0877_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+TakeScreenshot(VT200-0877);
+ClickNativeIcon(signature_cancel_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0880_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0880);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0881_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0881-01);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+TakeScreenshot(VT200-0881-02);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0885_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0885);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0886_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0886);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0887_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+SwitchApp(NATIVE_APP);
+DrawSignature(signature_view_xpath);
+TakeScreenshot(VT200-0887-01);
+ClickNativeIcon(signature_clear_xpath);
+wait(2);
+TakeScreenshot(VT200-0887-02);
+ClickNativeIcon(signature_ok_xpath);
+wait(2);
+SwitchApp(WEBVIEW);
+wait(2);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0889_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+TakeScreenshot(VT200-0889-01);
+Lock_UnlockScreen(lock);
+Lock_UnlockScreen(unlock);
+wait(2);
+TakeScreenshot(VT200-0889-02);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(signature_test_link);
+validate2;
+SelectTestToRun(VT200_0893_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+Rotate_Screen(landscape);
+wait(2);
+TakeScreenshot(VT200-0893-01);
+wait(2);
+Rotate_Screen(potrait);
+wait(2);
+TakeScreenshot(VT200-0893-02);
+wait(2);
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1464,13 +1464,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>59</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="H2" s="27"/>
       <c r="I2" s="2" t="s">
@@ -1497,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>21</v>
@@ -1551,10 +1551,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1578,10 +1578,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
@@ -1605,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="14"/>
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="14"/>
@@ -1659,10 +1659,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="14"/>
@@ -1686,10 +1686,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="14"/>
@@ -1713,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="14"/>
@@ -1740,7 +1740,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>31</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>32</v>
@@ -1790,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I14" s="21"/>
       <c r="J14" s="17"/>
@@ -1816,10 +1816,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I15" s="21"/>
       <c r="J15" s="17"/>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I16" s="21"/>
     </row>
@@ -1867,10 +1867,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I17" s="21"/>
     </row>
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>34</v>
@@ -1917,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>35</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>36</v>
